--- a/Companies/Bank - Public/UCO Bank Ltd/Pruned_Excel/1_Sep13_Sep14.xlsx
+++ b/Companies/Bank - Public/UCO Bank Ltd/Pruned_Excel/1_Sep13_Sep14.xlsx
@@ -55,13 +55,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -428,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J54"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,10 +439,6 @@
     <col width="10" customWidth="1" min="4" max="4"/>
     <col width="10" customWidth="1" min="5" max="5"/>
     <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="2" customWidth="1" min="7" max="7"/>
-    <col width="9" customWidth="1" min="8" max="8"/>
-    <col width="9" customWidth="1" min="9" max="9"/>
-    <col width="20" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -456,43 +449,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Sep '13</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Dec '13</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Mar '14</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Jun '14</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Sep '14</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Jun '14</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Mar '14</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Dec '13</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Sep '13</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr"/>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Avg</t>
         </is>
       </c>
     </row>
@@ -512,37 +489,28 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>3,395.76</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>3,542.94</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3,539.80</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>3,700.35</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>3,520.18</t>
         </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>3,700.35</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3,539.80</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>3,542.94</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3,395.76</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>3700.35</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>3395.76</v>
-      </c>
-      <c r="J4" s="2" t="n">
-        <v>3539.806</v>
       </c>
     </row>
     <row r="5">
@@ -553,37 +521,28 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>1,025.89</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1,138.40</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1,253.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>1,316.87</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>1,323.91</t>
         </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>1,316.87</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1,253.01</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>1,138.40</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1,025.89</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="n">
-        <v>1323.91</v>
-      </c>
-      <c r="I5" s="2" t="n">
-        <v>1025.89</v>
-      </c>
-      <c r="J5" s="2" t="n">
-        <v>1211.616</v>
       </c>
     </row>
     <row r="6">
@@ -594,37 +553,28 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>8.37</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>28.73</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>40.13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>34.37</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>39.61</t>
         </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>34.37</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>40.13</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>28.73</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>8.37</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>40.13</v>
-      </c>
-      <c r="I6" s="2" t="n">
-        <v>8.369999999999999</v>
-      </c>
-      <c r="J6" s="2" t="n">
-        <v>30.242</v>
       </c>
     </row>
     <row r="7">
@@ -635,37 +585,28 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>14.05</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>18.50</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17.42</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>21.35</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>13.95</t>
         </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>21.35</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>17.42</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>18.50</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>14.05</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>21.35</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>13.95</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>17.054</v>
       </c>
     </row>
     <row r="8">
@@ -676,37 +617,28 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>209.23</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>190.47</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>458.92</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>322.23</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>358.97</t>
         </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>322.23</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>458.92</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>190.47</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>209.23</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>458.92</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>190.47</v>
-      </c>
-      <c r="J8" s="2" t="n">
-        <v>307.9640000000001</v>
       </c>
     </row>
     <row r="9"/>
@@ -725,37 +657,28 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>2,874.68</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>3,162.82</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3,290.45</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>3,589.81</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>3,514.65</t>
         </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>3,589.81</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>3,290.45</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>3,162.82</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2,874.68</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>3589.81</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>2874.68</v>
-      </c>
-      <c r="J11" s="2" t="n">
-        <v>3286.482</v>
       </c>
     </row>
     <row r="12">
@@ -766,37 +689,28 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>382.23</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>395.02</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>394.05</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>398.37</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>404.96</t>
         </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>398.37</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>394.05</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>395.02</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>382.23</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>404.96</v>
-      </c>
-      <c r="I12" s="2" t="n">
-        <v>382.23</v>
-      </c>
-      <c r="J12" s="2" t="n">
-        <v>394.926</v>
       </c>
     </row>
     <row r="13">
@@ -807,37 +721,28 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>230.18</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>224.68</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>251.55</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>204.93</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>281.25</t>
         </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>204.93</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>251.55</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>224.68</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>230.18</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>281.25</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>204.93</v>
-      </c>
-      <c r="J13" s="2" t="n">
-        <v>238.518</v>
       </c>
     </row>
     <row r="14">
@@ -848,37 +753,28 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>1,166.21</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1,136.52</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1,373.23</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>1,202.06</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>1,055.76</t>
         </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>1,202.06</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1,373.23</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>1,136.52</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1,166.21</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>1373.23</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>1055.76</v>
-      </c>
-      <c r="J14" s="2" t="n">
-        <v>1186.756</v>
       </c>
     </row>
     <row r="15">
@@ -889,37 +785,28 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>758.68</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>811.68</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>904.64</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>517.14</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>935.30</t>
         </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>517.14</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>904.64</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>811.68</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>758.68</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>935.3</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>517.14</v>
-      </c>
-      <c r="J15" s="2" t="n">
-        <v>785.4879999999999</v>
       </c>
     </row>
     <row r="16">
@@ -930,37 +817,28 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>407.53</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>324.84</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>468.59</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>684.92</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>120.46</t>
         </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>684.92</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>468.59</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>324.84</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>407.53</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>684.92</v>
-      </c>
-      <c r="I16" s="2" t="n">
-        <v>120.46</v>
-      </c>
-      <c r="J16" s="2" t="n">
-        <v>401.268</v>
       </c>
     </row>
     <row r="17">
@@ -971,37 +849,28 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>10.31</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>183.89</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>163.52</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>16.93</t>
         </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>163.52</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>183.89</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>10.31</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>7.33</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>183.89</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="J17" s="2" t="n">
-        <v>76.396</v>
       </c>
     </row>
     <row r="18">
@@ -1012,37 +881,28 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>400.20</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>314.53</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>284.70</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>521.40</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>103.53</t>
         </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>521.40</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>284.70</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>314.53</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>400.20</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="n">
-        <v>521.4</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>103.53</v>
-      </c>
-      <c r="J18" s="2" t="n">
-        <v>324.872</v>
       </c>
     </row>
     <row r="19">
@@ -1053,37 +913,28 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>400.20</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>314.53</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>284.70</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>521.40</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>103.53</t>
         </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>521.40</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>284.70</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>314.53</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>400.20</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="n">
-        <v>521.4</v>
-      </c>
-      <c r="I19" s="2" t="n">
-        <v>103.53</v>
-      </c>
-      <c r="J19" s="2" t="n">
-        <v>324.872</v>
       </c>
     </row>
     <row r="20">
@@ -1094,37 +945,28 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>752.63</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>752.63</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>1,014.71</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1,014.71</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1,014.71</t>
         </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>752.63</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>752.63</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="n">
-        <v>1014.71</v>
-      </c>
-      <c r="I20" s="2" t="n">
-        <v>752.63</v>
-      </c>
-      <c r="J20" s="2" t="n">
-        <v>909.878</v>
       </c>
     </row>
     <row r="21">
@@ -1135,37 +977,28 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>6,562.08</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>6,562.08</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>9,624.18</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>9,624.18</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>9,624.18</t>
         </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>6,562.08</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>6,562.08</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="n">
-        <v>9624.18</v>
-      </c>
-      <c r="I21" s="2" t="n">
-        <v>6562.08</v>
-      </c>
-      <c r="J21" s="2" t="n">
-        <v>8399.34</v>
       </c>
     </row>
     <row r="22"/>
@@ -1184,37 +1017,28 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>69.26</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>69.26</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>77.20</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>77.20</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>77.20</t>
         </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>69.26</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>69.26</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="I24" s="2" t="n">
-        <v>69.26000000000001</v>
-      </c>
-      <c r="J24" s="2" t="n">
-        <v>74.024</v>
       </c>
     </row>
     <row r="25">
@@ -1225,37 +1049,28 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>13.23</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>12.11</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>13.40</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>12.91</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
           <t>12.69</t>
         </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>12.91</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>13.40</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>12.11</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>13.23</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="I25" s="2" t="n">
-        <v>12.11</v>
-      </c>
-      <c r="J25" s="2" t="n">
-        <v>12.868</v>
       </c>
     </row>
     <row r="26"/>
@@ -1274,37 +1089,28 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
           <t>1.02</t>
         </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>5.14</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>3.34</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>4.18</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>5.32</t>
-        </is>
-      </c>
-      <c r="H28" s="2" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="I28" s="2" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="J28" s="2" t="n">
-        <v>3.8</v>
       </c>
     </row>
     <row r="29">
@@ -1315,37 +1121,28 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
           <t>1.02</t>
         </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>5.14</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>3.34</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>4.18</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>5.32</t>
-        </is>
-      </c>
-      <c r="H29" s="2" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="I29" s="2" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="J29" s="2" t="n">
-        <v>3.8</v>
       </c>
     </row>
     <row r="30"/>
@@ -1364,37 +1161,28 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
           <t>1.02</t>
         </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>5.14</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>3.34</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>4.18</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>5.32</t>
-        </is>
-      </c>
-      <c r="H32" s="2" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="I32" s="2" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="J32" s="2" t="n">
-        <v>3.8</v>
       </c>
     </row>
     <row r="33">
@@ -1405,37 +1193,28 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
           <t>1.02</t>
         </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>5.14</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>3.34</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>4.18</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>5.32</t>
-        </is>
-      </c>
-      <c r="H33" s="2" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="I33" s="2" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="J33" s="2" t="n">
-        <v>3.8</v>
       </c>
     </row>
     <row r="34"/>
@@ -1454,37 +1233,28 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
+          <t>7,375.98</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>7,353.30</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>6,621.37</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>6,346.32</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
           <t>7,446.64</t>
         </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>6,346.32</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>6,621.37</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>7,353.30</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>7,375.98</t>
-        </is>
-      </c>
-      <c r="H36" s="2" t="n">
-        <v>7446.64</v>
-      </c>
-      <c r="I36" s="2" t="n">
-        <v>6346.32</v>
-      </c>
-      <c r="J36" s="2" t="n">
-        <v>7028.722</v>
       </c>
     </row>
     <row r="37">
@@ -1495,37 +1265,28 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
+          <t>4,228.22</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>4,216.55</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3,556.43</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>3,344.02</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
           <t>4,388.66</t>
         </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>3,344.02</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>3,556.43</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>4,216.55</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>4,228.22</t>
-        </is>
-      </c>
-      <c r="H37" s="2" t="n">
-        <v>4388.66</v>
-      </c>
-      <c r="I37" s="2" t="n">
-        <v>3344.02</v>
-      </c>
-      <c r="J37" s="2" t="n">
-        <v>3946.776</v>
       </c>
     </row>
     <row r="38">
@@ -1536,37 +1297,28 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
           <t>5.20</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
         <is>
           <t>4.31</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>4.32</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>5.20</t>
         </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>5.32</t>
-        </is>
-      </c>
-      <c r="H38" s="2" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="I38" s="2" t="n">
-        <v>4.31</v>
-      </c>
-      <c r="J38" s="2" t="n">
-        <v>4.87</v>
       </c>
     </row>
     <row r="39">
@@ -1577,37 +1329,28 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
           <t>3.15</t>
         </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>2.33</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>2.38</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>3.13</t>
-        </is>
-      </c>
-      <c r="H39" s="2" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="I39" s="2" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="J39" s="2" t="n">
-        <v>2.81</v>
       </c>
     </row>
     <row r="40">
@@ -1618,37 +1361,28 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
           <t>0.17</t>
         </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>0.57</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="H40" s="2" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="I40" s="2" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="J40" s="2" t="n">
-        <v>0.5780000000000001</v>
       </c>
     </row>
     <row r="41"/>
@@ -1690,15 +1424,6 @@
           <t>23.14</t>
         </is>
       </c>
-      <c r="H43" s="2" t="n">
-        <v>23.14</v>
-      </c>
-      <c r="I43" s="2" t="n">
-        <v>23.14</v>
-      </c>
-      <c r="J43" s="2" t="n">
-        <v>23.14</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1708,37 +1433,28 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
+          <t>30.74</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>30.74</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
           <t>22.80</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>22.80</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>22.80</t>
         </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>30.74</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>30.74</t>
-        </is>
-      </c>
-      <c r="H44" s="2" t="n">
-        <v>30.74</v>
-      </c>
-      <c r="I44" s="2" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="J44" s="2" t="n">
-        <v>25.976</v>
       </c>
     </row>
     <row r="45"/>
@@ -1773,37 +1489,28 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
+          <t>52.13</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>52.13</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
           <t>78.33</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>78.33</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>78.33</t>
         </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>52.13</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>52.13</t>
-        </is>
-      </c>
-      <c r="H51" s="2" t="n">
-        <v>78.33</v>
-      </c>
-      <c r="I51" s="2" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="J51" s="2" t="n">
-        <v>67.84999999999999</v>
       </c>
     </row>
     <row r="52">
@@ -1837,15 +1544,6 @@
           <t>100.00</t>
         </is>
       </c>
-      <c r="H52" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="I52" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J52" s="2" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1855,37 +1553,28 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
+          <t>69.26</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>69.26</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
           <t>77.20</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>77.20</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>77.20</t>
         </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>69.26</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>69.26</t>
-        </is>
-      </c>
-      <c r="H53" s="2" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="I53" s="2" t="n">
-        <v>69.26000000000001</v>
-      </c>
-      <c r="J53" s="2" t="n">
-        <v>74.024</v>
       </c>
     </row>
     <row r="54">
@@ -1896,37 +1585,28 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
+          <t>201309</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>201312</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>201403</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>201406</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
           <t>201409</t>
         </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>201406</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>201403</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>201312</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>201309</t>
-        </is>
-      </c>
-      <c r="H54" s="2" t="n">
-        <v>201409</v>
-      </c>
-      <c r="I54" s="2" t="n">
-        <v>201309</v>
-      </c>
-      <c r="J54" s="2" t="n">
-        <v>201367.8</v>
       </c>
     </row>
   </sheetData>
